--- a/sofaplayer/Premier_League/Newcastle United_stats.xlsx
+++ b/sofaplayer/Premier_League/Newcastle United_stats.xlsx
@@ -3183,7 +3183,7 @@
         <v>2018</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
